--- a/docs/StructureDefinition-KenyaSpecimen.xlsx
+++ b/docs/StructureDefinition-KenyaSpecimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-16T14:48:05+03:00</t>
+    <t>2024-11-27T16:57:00+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
